--- a/natmiOut/OldD2/LR-pairs_lrc2p/Sema6d-Tyrobp.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Sema6d-Tyrobp.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Tyrobp</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>61.5966156478981</v>
+        <v>61.641409</v>
       </c>
       <c r="H2">
-        <v>61.5966156478981</v>
+        <v>123.282818</v>
       </c>
       <c r="I2">
-        <v>0.4392653446519257</v>
+        <v>0.4168550508657654</v>
       </c>
       <c r="J2">
-        <v>0.4392653446519257</v>
+        <v>0.3494068724346085</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>538.946050919842</v>
+        <v>1.0240055</v>
       </c>
       <c r="N2">
-        <v>538.946050919842</v>
+        <v>2.048011</v>
       </c>
       <c r="O2">
-        <v>0.4435963863944399</v>
+        <v>0.0008333425726394368</v>
       </c>
       <c r="P2">
-        <v>0.4435963863944399</v>
+        <v>0.0005557160823828744</v>
       </c>
       <c r="Q2">
-        <v>33197.25275346202</v>
+        <v>63.12114184374949</v>
       </c>
       <c r="R2">
-        <v>33197.25275346202</v>
+        <v>252.484567374998</v>
       </c>
       <c r="S2">
-        <v>0.1948565195559025</v>
+        <v>0.0003473830605062202</v>
       </c>
       <c r="T2">
-        <v>0.1948565195559025</v>
+        <v>0.0001941710183070134</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,557 +590,1797 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>61.5966156478981</v>
+        <v>61.641409</v>
       </c>
       <c r="H3">
-        <v>61.5966156478981</v>
+        <v>123.282818</v>
       </c>
       <c r="I3">
-        <v>0.4392653446519257</v>
+        <v>0.4168550508657654</v>
       </c>
       <c r="J3">
-        <v>0.4392653446519257</v>
+        <v>0.3494068724346085</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>676.0008410068619</v>
+        <v>0.04770566666666667</v>
       </c>
       <c r="N3">
-        <v>676.0008410068619</v>
+        <v>0.143117</v>
       </c>
       <c r="O3">
-        <v>0.55640361360556</v>
+        <v>3.882319283390512E-05</v>
       </c>
       <c r="P3">
-        <v>0.55640361360556</v>
+        <v>3.883398017021874E-05</v>
       </c>
       <c r="Q3">
-        <v>41639.36398115555</v>
+        <v>2.940644510617667</v>
       </c>
       <c r="R3">
-        <v>41639.36398115555</v>
+        <v>17.643867063706</v>
       </c>
       <c r="S3">
-        <v>0.2444088250960232</v>
+        <v>1.618364402354893E-05</v>
       </c>
       <c r="T3">
-        <v>0.2444088250960232</v>
+        <v>1.356885955546374E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.4999368361075</v>
+        <v>61.641409</v>
       </c>
       <c r="H4">
-        <v>11.4999368361075</v>
+        <v>123.282818</v>
       </c>
       <c r="I4">
-        <v>0.08200976083919821</v>
+        <v>0.4168550508657654</v>
       </c>
       <c r="J4">
-        <v>0.08200976083919821</v>
+        <v>0.3494068724346085</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>538.946050919842</v>
+        <v>543.0669859999999</v>
       </c>
       <c r="N4">
-        <v>538.946050919842</v>
+        <v>1629.200958</v>
       </c>
       <c r="O4">
-        <v>0.4435963863944399</v>
+        <v>0.4419515707960406</v>
       </c>
       <c r="P4">
-        <v>0.4435963863944399</v>
+        <v>0.4420743705938034</v>
       </c>
       <c r="Q4">
-        <v>6197.84554364776</v>
+        <v>33475.41419842327</v>
       </c>
       <c r="R4">
-        <v>6197.84554364776</v>
+        <v>200852.4851905396</v>
       </c>
       <c r="S4">
-        <v>0.03637923355734058</v>
+        <v>0.1842297445243884</v>
       </c>
       <c r="T4">
-        <v>0.03637923355734058</v>
+        <v>0.1544638232126789</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.4999368361075</v>
+        <v>61.641409</v>
       </c>
       <c r="H5">
-        <v>11.4999368361075</v>
+        <v>123.282818</v>
       </c>
       <c r="I5">
-        <v>0.08200976083919821</v>
+        <v>0.4168550508657654</v>
       </c>
       <c r="J5">
-        <v>0.08200976083919821</v>
+        <v>0.3494068724346085</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>676.0008410068619</v>
+        <v>682.2988893333332</v>
       </c>
       <c r="N5">
-        <v>676.0008410068619</v>
+        <v>2046.896668</v>
       </c>
       <c r="O5">
-        <v>0.55640361360556</v>
+        <v>0.5552594314640599</v>
       </c>
       <c r="P5">
-        <v>0.55640361360556</v>
+        <v>0.5554137147620395</v>
       </c>
       <c r="Q5">
-        <v>7773.966972734461</v>
+        <v>42057.86489764173</v>
       </c>
       <c r="R5">
-        <v>7773.966972734461</v>
+        <v>252347.1893858504</v>
       </c>
       <c r="S5">
-        <v>0.04563052728185763</v>
+        <v>0.2314626985466466</v>
       </c>
       <c r="T5">
-        <v>0.04563052728185763</v>
+        <v>0.194065368982292</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.926204333973038</v>
+        <v>61.641409</v>
       </c>
       <c r="H6">
-        <v>0.926204333973038</v>
+        <v>123.282818</v>
       </c>
       <c r="I6">
-        <v>0.006605062010329087</v>
+        <v>0.4168550508657654</v>
       </c>
       <c r="J6">
-        <v>0.006605062010329087</v>
+        <v>0.3494068724346085</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>538.946050919842</v>
+        <v>2.355389666666666</v>
       </c>
       <c r="N6">
-        <v>538.946050919842</v>
+        <v>7.066168999999999</v>
       </c>
       <c r="O6">
-        <v>0.4435963863944399</v>
+        <v>0.001916831974426256</v>
       </c>
       <c r="P6">
-        <v>0.4435963863944399</v>
+        <v>0.001917364581603963</v>
       </c>
       <c r="Q6">
-        <v>499.1741681396113</v>
+        <v>145.1895377973736</v>
       </c>
       <c r="R6">
-        <v>499.1741681396113</v>
+        <v>871.1372267842419</v>
       </c>
       <c r="S6">
-        <v>0.002929981639693178</v>
+        <v>0.0007990410902005824</v>
       </c>
       <c r="T6">
-        <v>0.002929981639693178</v>
+        <v>0.0006699403617751324</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.926204333973038</v>
+        <v>12.35119866666667</v>
       </c>
       <c r="H7">
-        <v>0.926204333973038</v>
+        <v>37.053596</v>
       </c>
       <c r="I7">
-        <v>0.006605062010329087</v>
+        <v>0.0835259873512383</v>
       </c>
       <c r="J7">
-        <v>0.006605062010329087</v>
+        <v>0.1050169139613236</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M7">
-        <v>676.0008410068619</v>
+        <v>1.0240055</v>
       </c>
       <c r="N7">
-        <v>676.0008410068619</v>
+        <v>2.048011</v>
       </c>
       <c r="O7">
-        <v>0.55640361360556</v>
+        <v>0.0008333425726394368</v>
       </c>
       <c r="P7">
-        <v>0.55640361360556</v>
+        <v>0.0005557160823828744</v>
       </c>
       <c r="Q7">
-        <v>626.1149087099741</v>
+        <v>12.64769536625933</v>
       </c>
       <c r="R7">
-        <v>626.1149087099741</v>
+        <v>75.88617219755599</v>
       </c>
       <c r="S7">
-        <v>0.003675080370635909</v>
+        <v>6.960576118152998E-05</v>
       </c>
       <c r="T7">
-        <v>0.003675080370635909</v>
+        <v>5.835958801052616E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>40.8995717163733</v>
+        <v>12.35119866666667</v>
       </c>
       <c r="H8">
-        <v>40.8995717163733</v>
+        <v>37.053596</v>
       </c>
       <c r="I8">
-        <v>0.2916680450238654</v>
+        <v>0.0835259873512383</v>
       </c>
       <c r="J8">
-        <v>0.2916680450238654</v>
+        <v>0.1050169139613236</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>538.946050919842</v>
+        <v>0.04770566666666667</v>
       </c>
       <c r="N8">
-        <v>538.946050919842</v>
+        <v>0.143117</v>
       </c>
       <c r="O8">
-        <v>0.4435963863944399</v>
+        <v>3.882319283390512E-05</v>
       </c>
       <c r="P8">
-        <v>0.4435963863944399</v>
+        <v>3.883398017021874E-05</v>
       </c>
       <c r="Q8">
-        <v>22042.66266085226</v>
+        <v>0.5892221665257777</v>
       </c>
       <c r="R8">
-        <v>22042.66266085226</v>
+        <v>5.302999498731999</v>
       </c>
       <c r="S8">
-        <v>0.1293828907993175</v>
+        <v>3.242745513579444E-06</v>
       </c>
       <c r="T8">
-        <v>0.1293828907993175</v>
+        <v>4.078224754311609E-06</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>40.8995717163733</v>
+        <v>12.35119866666667</v>
       </c>
       <c r="H9">
-        <v>40.8995717163733</v>
+        <v>37.053596</v>
       </c>
       <c r="I9">
-        <v>0.2916680450238654</v>
+        <v>0.0835259873512383</v>
       </c>
       <c r="J9">
-        <v>0.2916680450238654</v>
+        <v>0.1050169139613236</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>676.0008410068619</v>
+        <v>543.0669859999999</v>
       </c>
       <c r="N9">
-        <v>676.0008410068619</v>
+        <v>1629.200958</v>
       </c>
       <c r="O9">
-        <v>0.55640361360556</v>
+        <v>0.4419515707960406</v>
       </c>
       <c r="P9">
-        <v>0.55640361360556</v>
+        <v>0.4420743705938034</v>
       </c>
       <c r="Q9">
-        <v>27648.14487708882</v>
+        <v>6707.528233393885</v>
       </c>
       <c r="R9">
-        <v>27648.14487708882</v>
+        <v>60367.75410054496</v>
       </c>
       <c r="S9">
-        <v>0.1622851542245479</v>
+        <v>0.03691444131216998</v>
       </c>
       <c r="T9">
-        <v>0.1622851542245479</v>
+        <v>0.04642528614115576</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>25.3041118116474</v>
+        <v>12.35119866666667</v>
       </c>
       <c r="H10">
-        <v>25.3041118116474</v>
+        <v>37.053596</v>
       </c>
       <c r="I10">
-        <v>0.1804517874746817</v>
+        <v>0.0835259873512383</v>
       </c>
       <c r="J10">
-        <v>0.1804517874746817</v>
+        <v>0.1050169139613236</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>538.946050919842</v>
+        <v>682.2988893333332</v>
       </c>
       <c r="N10">
-        <v>538.946050919842</v>
+        <v>2046.896668</v>
       </c>
       <c r="O10">
-        <v>0.4435963863944399</v>
+        <v>0.5552594314640599</v>
       </c>
       <c r="P10">
-        <v>0.4435963863944399</v>
+        <v>0.5554137147620395</v>
       </c>
       <c r="Q10">
-        <v>13637.5511329215</v>
+        <v>8427.209132202013</v>
       </c>
       <c r="R10">
-        <v>13637.5511329215</v>
+        <v>75844.88218981812</v>
       </c>
       <c r="S10">
-        <v>0.08004776084218625</v>
+        <v>0.04637859224912284</v>
       </c>
       <c r="T10">
-        <v>0.08004776084218625</v>
+        <v>0.05832783429610425</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="B11" t="s">
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>12.35119866666667</v>
+      </c>
+      <c r="H11">
+        <v>37.053596</v>
+      </c>
+      <c r="I11">
+        <v>0.0835259873512383</v>
+      </c>
+      <c r="J11">
+        <v>0.1050169139613236</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>2.355389666666666</v>
+      </c>
+      <c r="N11">
+        <v>7.066168999999999</v>
+      </c>
+      <c r="O11">
+        <v>0.001916831974426256</v>
+      </c>
+      <c r="P11">
+        <v>0.001917364581603963</v>
+      </c>
+      <c r="Q11">
+        <v>29.09188571041378</v>
+      </c>
+      <c r="R11">
+        <v>261.826971393724</v>
+      </c>
+      <c r="S11">
+        <v>0.0001601052832503766</v>
+      </c>
+      <c r="T11">
+        <v>0.0002013557112987927</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.556859</v>
+      </c>
+      <c r="H12">
+        <v>1.670577</v>
+      </c>
+      <c r="I12">
+        <v>0.003765804360021349</v>
+      </c>
+      <c r="J12">
+        <v>0.004734731848287171</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.5</v>
+      </c>
+      <c r="M12">
+        <v>1.0240055</v>
+      </c>
+      <c r="N12">
+        <v>2.048011</v>
+      </c>
+      <c r="O12">
+        <v>0.0008333425726394368</v>
+      </c>
+      <c r="P12">
+        <v>0.0005557160823828744</v>
+      </c>
+      <c r="Q12">
+        <v>0.5702266787244999</v>
+      </c>
+      <c r="R12">
+        <v>3.421360072346999</v>
+      </c>
+      <c r="S12">
+        <v>3.138205093436999E-06</v>
+      </c>
+      <c r="T12">
+        <v>2.631166633863573E-06</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.556859</v>
+      </c>
+      <c r="H13">
+        <v>1.670577</v>
+      </c>
+      <c r="I13">
+        <v>0.003765804360021349</v>
+      </c>
+      <c r="J13">
+        <v>0.004734731848287171</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.04770566666666667</v>
+      </c>
+      <c r="N13">
+        <v>0.143117</v>
+      </c>
+      <c r="O13">
+        <v>3.882319283390512E-05</v>
+      </c>
+      <c r="P13">
+        <v>3.883398017021874E-05</v>
+      </c>
+      <c r="Q13">
+        <v>0.02656532983433333</v>
+      </c>
+      <c r="R13">
+        <v>0.239087968509</v>
+      </c>
+      <c r="S13">
+        <v>1.462005488438695E-07</v>
+      </c>
+      <c r="T13">
+        <v>1.838684827076871E-07</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.556859</v>
+      </c>
+      <c r="H14">
+        <v>1.670577</v>
+      </c>
+      <c r="I14">
+        <v>0.003765804360021349</v>
+      </c>
+      <c r="J14">
+        <v>0.004734731848287171</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>543.0669859999999</v>
+      </c>
+      <c r="N14">
+        <v>1629.200958</v>
+      </c>
+      <c r="O14">
+        <v>0.4419515707960406</v>
+      </c>
+      <c r="P14">
+        <v>0.4420743705938034</v>
+      </c>
+      <c r="Q14">
+        <v>302.4117387569739</v>
+      </c>
+      <c r="R14">
+        <v>2721.705648812766</v>
+      </c>
+      <c r="S14">
+        <v>0.001664303152222014</v>
+      </c>
+      <c r="T14">
+        <v>0.002093103601761987</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.556859</v>
+      </c>
+      <c r="H15">
+        <v>1.670577</v>
+      </c>
+      <c r="I15">
+        <v>0.003765804360021349</v>
+      </c>
+      <c r="J15">
+        <v>0.004734731848287171</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>682.2988893333332</v>
+      </c>
+      <c r="N15">
+        <v>2046.896668</v>
+      </c>
+      <c r="O15">
+        <v>0.5552594314640599</v>
+      </c>
+      <c r="P15">
+        <v>0.5554137147620395</v>
+      </c>
+      <c r="Q15">
+        <v>379.9442772152706</v>
+      </c>
+      <c r="R15">
+        <v>3419.498494937436</v>
+      </c>
+      <c r="S15">
+        <v>0.002090998387950332</v>
+      </c>
+      <c r="T15">
+        <v>0.002629735004259315</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.556859</v>
+      </c>
+      <c r="H16">
+        <v>1.670577</v>
+      </c>
+      <c r="I16">
+        <v>0.003765804360021349</v>
+      </c>
+      <c r="J16">
+        <v>0.004734731848287171</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>2.355389666666666</v>
+      </c>
+      <c r="N16">
+        <v>7.066168999999999</v>
+      </c>
+      <c r="O16">
+        <v>0.001916831974426256</v>
+      </c>
+      <c r="P16">
+        <v>0.001917364581603963</v>
+      </c>
+      <c r="Q16">
+        <v>1.311619934390333</v>
+      </c>
+      <c r="R16">
+        <v>11.804579409513</v>
+      </c>
+      <c r="S16">
+        <v>7.218414206722726E-06</v>
+      </c>
+      <c r="T16">
+        <v>9.07820714929809E-06</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.9433796666666666</v>
+      </c>
+      <c r="H17">
+        <v>2.830139</v>
+      </c>
+      <c r="I17">
+        <v>0.006379681861815685</v>
+      </c>
+      <c r="J17">
+        <v>0.008021150332118547</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.5</v>
+      </c>
+      <c r="M17">
+        <v>1.0240055</v>
+      </c>
+      <c r="N17">
+        <v>2.048011</v>
+      </c>
+      <c r="O17">
+        <v>0.0008333425726394368</v>
+      </c>
+      <c r="P17">
+        <v>0.0005557160823828744</v>
+      </c>
+      <c r="Q17">
+        <v>0.9660259672548331</v>
+      </c>
+      <c r="R17">
+        <v>5.796155803529</v>
+      </c>
+      <c r="S17">
+        <v>5.316460495346635E-06</v>
+      </c>
+      <c r="T17">
+        <v>4.457482238769011E-06</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.9433796666666666</v>
+      </c>
+      <c r="H18">
+        <v>2.830139</v>
+      </c>
+      <c r="I18">
+        <v>0.006379681861815685</v>
+      </c>
+      <c r="J18">
+        <v>0.008021150332118547</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.04770566666666667</v>
+      </c>
+      <c r="N18">
+        <v>0.143117</v>
+      </c>
+      <c r="O18">
+        <v>3.882319283390512E-05</v>
+      </c>
+      <c r="P18">
+        <v>3.883398017021874E-05</v>
+      </c>
+      <c r="Q18">
+        <v>0.04500455591811111</v>
+      </c>
+      <c r="R18">
+        <v>0.405041003263</v>
+      </c>
+      <c r="S18">
+        <v>2.476796191402372E-07</v>
+      </c>
+      <c r="T18">
+        <v>3.114931929398351E-07</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.9433796666666666</v>
+      </c>
+      <c r="H19">
+        <v>2.830139</v>
+      </c>
+      <c r="I19">
+        <v>0.006379681861815685</v>
+      </c>
+      <c r="J19">
+        <v>0.008021150332118547</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>543.0669859999999</v>
+      </c>
+      <c r="N19">
+        <v>1629.200958</v>
+      </c>
+      <c r="O19">
+        <v>0.4419515707960406</v>
+      </c>
+      <c r="P19">
+        <v>0.4420743705938034</v>
+      </c>
+      <c r="Q19">
+        <v>512.3183522303513</v>
+      </c>
+      <c r="R19">
+        <v>4610.865170073162</v>
+      </c>
+      <c r="S19">
+        <v>0.002819510420008451</v>
+      </c>
+      <c r="T19">
+        <v>0.003545944984509584</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.9433796666666666</v>
+      </c>
+      <c r="H20">
+        <v>2.830139</v>
+      </c>
+      <c r="I20">
+        <v>0.006379681861815685</v>
+      </c>
+      <c r="J20">
+        <v>0.008021150332118547</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>682.2988893333332</v>
+      </c>
+      <c r="N20">
+        <v>2046.896668</v>
+      </c>
+      <c r="O20">
+        <v>0.5552594314640599</v>
+      </c>
+      <c r="P20">
+        <v>0.5554137147620395</v>
+      </c>
+      <c r="Q20">
+        <v>643.6668987863168</v>
+      </c>
+      <c r="R20">
+        <v>5793.002089076852</v>
+      </c>
+      <c r="S20">
+        <v>0.003542378523513352</v>
+      </c>
+      <c r="T20">
+        <v>0.004455056902626729</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.9433796666666666</v>
+      </c>
+      <c r="H21">
+        <v>2.830139</v>
+      </c>
+      <c r="I21">
+        <v>0.006379681861815685</v>
+      </c>
+      <c r="J21">
+        <v>0.008021150332118547</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M21">
+        <v>2.355389666666666</v>
+      </c>
+      <c r="N21">
+        <v>7.066168999999999</v>
+      </c>
+      <c r="O21">
+        <v>0.001916831974426256</v>
+      </c>
+      <c r="P21">
+        <v>0.001917364581603963</v>
+      </c>
+      <c r="Q21">
+        <v>2.222026718610111</v>
+      </c>
+      <c r="R21">
+        <v>19.998240467491</v>
+      </c>
+      <c r="S21">
+        <v>1.222877817939553E-05</v>
+      </c>
+      <c r="T21">
+        <v>1.537946955052497E-05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>43.23806633333334</v>
+      </c>
+      <c r="H22">
+        <v>129.714199</v>
+      </c>
+      <c r="I22">
+        <v>0.2924009465896376</v>
+      </c>
+      <c r="J22">
+        <v>0.3676346251506875</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.5</v>
+      </c>
+      <c r="M22">
+        <v>1.0240055</v>
+      </c>
+      <c r="N22">
+        <v>2.048011</v>
+      </c>
+      <c r="O22">
+        <v>0.0008333425726394368</v>
+      </c>
+      <c r="P22">
+        <v>0.0005557160823828744</v>
+      </c>
+      <c r="Q22">
+        <v>44.27601773469816</v>
+      </c>
+      <c r="R22">
+        <v>265.656106408189</v>
+      </c>
+      <c r="S22">
+        <v>0.0002436701570732151</v>
+      </c>
+      <c r="T22">
+        <v>0.0002043004736370366</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>43.23806633333334</v>
+      </c>
+      <c r="H23">
+        <v>129.714199</v>
+      </c>
+      <c r="I23">
+        <v>0.2924009465896376</v>
+      </c>
+      <c r="J23">
+        <v>0.3676346251506875</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M23">
+        <v>0.04770566666666667</v>
+      </c>
+      <c r="N23">
+        <v>0.143117</v>
+      </c>
+      <c r="O23">
+        <v>3.882319283390512E-05</v>
+      </c>
+      <c r="P23">
+        <v>3.883398017021874E-05</v>
+      </c>
+      <c r="Q23">
+        <v>2.062700779809223</v>
+      </c>
+      <c r="R23">
+        <v>18.564307018283</v>
+      </c>
+      <c r="S23">
+        <v>1.135193833426589E-05</v>
+      </c>
+      <c r="T23">
+        <v>1.42767157429876E-05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>43.23806633333334</v>
+      </c>
+      <c r="H24">
+        <v>129.714199</v>
+      </c>
+      <c r="I24">
+        <v>0.2924009465896376</v>
+      </c>
+      <c r="J24">
+        <v>0.3676346251506875</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>543.0669859999999</v>
+      </c>
+      <c r="N24">
+        <v>1629.200958</v>
+      </c>
+      <c r="O24">
+        <v>0.4419515707960406</v>
+      </c>
+      <c r="P24">
+        <v>0.4420743705938034</v>
+      </c>
+      <c r="Q24">
+        <v>23481.1663641114</v>
+      </c>
+      <c r="R24">
+        <v>211330.4972770026</v>
+      </c>
+      <c r="S24">
+        <v>0.1292270576475395</v>
+      </c>
+      <c r="T24">
+        <v>0.162521845521979</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>43.23806633333334</v>
+      </c>
+      <c r="H25">
+        <v>129.714199</v>
+      </c>
+      <c r="I25">
+        <v>0.2924009465896376</v>
+      </c>
+      <c r="J25">
+        <v>0.3676346251506875</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>682.2988893333332</v>
+      </c>
+      <c r="N25">
+        <v>2046.896668</v>
+      </c>
+      <c r="O25">
+        <v>0.5552594314640599</v>
+      </c>
+      <c r="P25">
+        <v>0.5554137147620395</v>
+      </c>
+      <c r="Q25">
+        <v>29501.28463615432</v>
+      </c>
+      <c r="R25">
+        <v>265511.5617253889</v>
+      </c>
+      <c r="S25">
+        <v>0.1623583833629151</v>
+      </c>
+      <c r="T25">
+        <v>0.2041893128300932</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>43.23806633333334</v>
+      </c>
+      <c r="H26">
+        <v>129.714199</v>
+      </c>
+      <c r="I26">
+        <v>0.2924009465896376</v>
+      </c>
+      <c r="J26">
+        <v>0.3676346251506875</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M26">
+        <v>2.355389666666666</v>
+      </c>
+      <c r="N26">
+        <v>7.066168999999999</v>
+      </c>
+      <c r="O26">
+        <v>0.001916831974426256</v>
+      </c>
+      <c r="P26">
+        <v>0.001917364581603963</v>
+      </c>
+      <c r="Q26">
+        <v>101.8424946481812</v>
+      </c>
+      <c r="R26">
+        <v>916.582451833631</v>
+      </c>
+      <c r="S26">
+        <v>0.0005604834837755211</v>
+      </c>
+      <c r="T26">
+        <v>0.0007048896092351776</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
         <v>25</v>
       </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>29.1416125</v>
+      </c>
+      <c r="H27">
+        <v>58.283225</v>
+      </c>
+      <c r="I27">
+        <v>0.1970725289715218</v>
+      </c>
+      <c r="J27">
+        <v>0.1651857062729746</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>0.5</v>
+      </c>
+      <c r="M27">
+        <v>1.0240055</v>
+      </c>
+      <c r="N27">
+        <v>2.048011</v>
+      </c>
+      <c r="O27">
+        <v>0.0008333425726394368</v>
+      </c>
+      <c r="P27">
+        <v>0.0005557160823828744</v>
+      </c>
+      <c r="Q27">
+        <v>29.84117147886875</v>
+      </c>
+      <c r="R27">
+        <v>119.364685915475</v>
+      </c>
+      <c r="S27">
+        <v>0.0001642289282896879</v>
+      </c>
+      <c r="T27">
+        <v>9.179635355566565E-05</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>29.1416125</v>
+      </c>
+      <c r="H28">
+        <v>58.283225</v>
+      </c>
+      <c r="I28">
+        <v>0.1970725289715218</v>
+      </c>
+      <c r="J28">
+        <v>0.1651857062729746</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M28">
+        <v>0.04770566666666667</v>
+      </c>
+      <c r="N28">
+        <v>0.143117</v>
+      </c>
+      <c r="O28">
+        <v>3.882319283390512E-05</v>
+      </c>
+      <c r="P28">
+        <v>3.883398017021874E-05</v>
+      </c>
+      <c r="Q28">
+        <v>1.390220052054167</v>
+      </c>
+      <c r="R28">
+        <v>8.341320312324999</v>
+      </c>
+      <c r="S28">
+        <v>7.650984794526743E-06</v>
+      </c>
+      <c r="T28">
+        <v>6.414818441808273E-06</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
         <v>22</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>25.3041118116474</v>
-      </c>
-      <c r="H11">
-        <v>25.3041118116474</v>
-      </c>
-      <c r="I11">
-        <v>0.1804517874746817</v>
-      </c>
-      <c r="J11">
-        <v>0.1804517874746817</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>676.0008410068619</v>
-      </c>
-      <c r="N11">
-        <v>676.0008410068619</v>
-      </c>
-      <c r="O11">
-        <v>0.55640361360556</v>
-      </c>
-      <c r="P11">
-        <v>0.55640361360556</v>
-      </c>
-      <c r="Q11">
-        <v>17105.60086560531</v>
-      </c>
-      <c r="R11">
-        <v>17105.60086560531</v>
-      </c>
-      <c r="S11">
-        <v>0.1004040266324954</v>
-      </c>
-      <c r="T11">
-        <v>0.1004040266324954</v>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>29.1416125</v>
+      </c>
+      <c r="H29">
+        <v>58.283225</v>
+      </c>
+      <c r="I29">
+        <v>0.1970725289715218</v>
+      </c>
+      <c r="J29">
+        <v>0.1651857062729746</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>543.0669859999999</v>
+      </c>
+      <c r="N29">
+        <v>1629.200958</v>
+      </c>
+      <c r="O29">
+        <v>0.4419515707960406</v>
+      </c>
+      <c r="P29">
+        <v>0.4420743705938034</v>
+      </c>
+      <c r="Q29">
+        <v>15825.84766755492</v>
+      </c>
+      <c r="R29">
+        <v>94955.08600532955</v>
+      </c>
+      <c r="S29">
+        <v>0.08709651373971226</v>
+      </c>
+      <c r="T29">
+        <v>0.07302436713171814</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>29.1416125</v>
+      </c>
+      <c r="H30">
+        <v>58.283225</v>
+      </c>
+      <c r="I30">
+        <v>0.1970725289715218</v>
+      </c>
+      <c r="J30">
+        <v>0.1651857062729746</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>682.2988893333332</v>
+      </c>
+      <c r="N30">
+        <v>2046.896668</v>
+      </c>
+      <c r="O30">
+        <v>0.5552594314640599</v>
+      </c>
+      <c r="P30">
+        <v>0.5554137147620395</v>
+      </c>
+      <c r="Q30">
+        <v>19883.28984213238</v>
+      </c>
+      <c r="R30">
+        <v>119299.7390527943</v>
+      </c>
+      <c r="S30">
+        <v>0.1094263803939116</v>
+      </c>
+      <c r="T30">
+        <v>0.09174640674666396</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>29.1416125</v>
+      </c>
+      <c r="H31">
+        <v>58.283225</v>
+      </c>
+      <c r="I31">
+        <v>0.1970725289715218</v>
+      </c>
+      <c r="J31">
+        <v>0.1651857062729746</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M31">
+        <v>2.355389666666666</v>
+      </c>
+      <c r="N31">
+        <v>7.066168999999999</v>
+      </c>
+      <c r="O31">
+        <v>0.001916831974426256</v>
+      </c>
+      <c r="P31">
+        <v>0.001917364581603963</v>
+      </c>
+      <c r="Q31">
+        <v>68.63985295250416</v>
+      </c>
+      <c r="R31">
+        <v>411.839117715025</v>
+      </c>
+      <c r="S31">
+        <v>0.0003777549248136576</v>
+      </c>
+      <c r="T31">
+        <v>0.0003167212225950371</v>
       </c>
     </row>
   </sheetData>
